--- a/data/YT_AA_rechargable_test_Project_Farm_2019.xlsx
+++ b/data/YT_AA_rechargable_test_Project_Farm_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Dropbox\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\r-sandbox01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Rayovac (1350)</t>
   </si>
@@ -65,24 +65,9 @@
     <t>rated_mAh</t>
   </si>
   <si>
-    <t>mAh_500mA_discharge_test1</t>
-  </si>
-  <si>
-    <t>mAh_500mA_discharge_test2</t>
-  </si>
-  <si>
-    <t>mAh_500mA_discharge_avg</t>
-  </si>
-  <si>
     <t>mAh_500ma_discharge_pct_of_rated</t>
   </si>
   <si>
-    <t>mAh_300mA_discharge_test1</t>
-  </si>
-  <si>
-    <t>mAh_1000mA_discharge_test1</t>
-  </si>
-  <si>
     <t>weight_grams</t>
   </si>
   <si>
@@ -96,14 +81,46 @@
   </si>
   <si>
     <t>mAh_1000ma_discharge_pct_of_rated</t>
+  </si>
+  <si>
+    <t>mAh_500mA_discharge</t>
+  </si>
+  <si>
+    <t>mAh_300mA_discharge</t>
+  </si>
+  <si>
+    <t>mAh_1000mA_discharge</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>UnitCost</t>
+  </si>
+  <si>
+    <t>Amazon Basics Black</t>
+  </si>
+  <si>
+    <t>Amazon Basics Silver</t>
+  </si>
+  <si>
+    <t>Harbor Freight 2200</t>
+  </si>
+  <si>
+    <t>Eneloop 2100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,17 +155,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -428,30 +449,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -463,34 +483,28 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,32 +523,25 @@
       <c r="F2">
         <v>1500</v>
       </c>
-      <c r="G2">
-        <v>1329</v>
-      </c>
-      <c r="H2">
-        <v>1362</v>
-      </c>
-      <c r="I2">
-        <f>AVERAGE(G2:H2)</f>
+      <c r="G2" s="4">
+        <v>1370</v>
+      </c>
+      <c r="H2" s="4">
         <v>1345.5</v>
       </c>
+      <c r="I2" s="4">
+        <v>1105</v>
+      </c>
       <c r="J2" s="2">
+        <f>H2/D2</f>
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="K2" s="3">
         <f>I2/D2</f>
-        <v>0.9966666666666667</v>
-      </c>
-      <c r="K2">
-        <v>1370</v>
-      </c>
-      <c r="L2">
-        <v>1105</v>
-      </c>
-      <c r="M2" s="3">
-        <f>L2/D2</f>
         <v>0.81851851851851853</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -553,32 +560,25 @@
       <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3">
-        <v>2177</v>
-      </c>
-      <c r="H3">
-        <v>2257</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">AVERAGE(G3:H3)</f>
+      <c r="G3" s="4">
+        <v>2274</v>
+      </c>
+      <c r="H3" s="4">
         <v>2217</v>
       </c>
+      <c r="I3" s="4">
+        <v>2085</v>
+      </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J11" si="1">I3/D3</f>
+        <f>H3/D3</f>
         <v>1.0077272727272728</v>
       </c>
-      <c r="K3">
-        <v>2274</v>
-      </c>
-      <c r="L3">
-        <v>2085</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M10" si="2">L3/D3</f>
+      <c r="K3" s="3">
+        <f>I3/D3</f>
         <v>0.94772727272727275</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -597,32 +597,25 @@
       <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G4">
-        <v>1816</v>
-      </c>
-      <c r="H4">
-        <v>1849</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="G4" s="4">
+        <v>1867</v>
+      </c>
+      <c r="H4" s="4">
         <v>1832.5</v>
       </c>
+      <c r="I4" s="4">
+        <v>1725</v>
+      </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
+        <f>H4/D4</f>
         <v>0.96447368421052626</v>
       </c>
-      <c r="K4">
-        <v>1867</v>
-      </c>
-      <c r="L4">
-        <v>1725</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="2"/>
+      <c r="K4" s="3">
+        <f>I4/D4</f>
         <v>0.90789473684210531</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -641,32 +634,25 @@
       <c r="F5">
         <v>1500</v>
       </c>
-      <c r="G5">
-        <v>2346</v>
-      </c>
-      <c r="H5">
-        <v>2381</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="G5" s="4">
+        <v>2396</v>
+      </c>
+      <c r="H5" s="4">
         <v>2363.5</v>
       </c>
+      <c r="I5" s="4">
+        <v>2331</v>
+      </c>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
+        <f>H5/D5</f>
         <v>0.98479166666666662</v>
       </c>
-      <c r="K5">
-        <v>2396</v>
-      </c>
-      <c r="L5">
-        <v>2331</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="2"/>
+      <c r="K5" s="3">
+        <f>I5/D5</f>
         <v>0.97124999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -685,32 +671,25 @@
       <c r="F6">
         <v>1000</v>
       </c>
-      <c r="G6">
-        <v>1903</v>
-      </c>
-      <c r="H6">
-        <v>1898</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="G6" s="4">
+        <v>1969</v>
+      </c>
+      <c r="H6" s="4">
         <v>1900.5</v>
       </c>
+      <c r="I6" s="4">
+        <v>1772</v>
+      </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f>H6/D6</f>
         <v>0.95025000000000004</v>
       </c>
-      <c r="K6">
-        <v>1969</v>
-      </c>
-      <c r="L6">
-        <v>1772</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="2"/>
+      <c r="K6" s="3">
+        <f>I6/D6</f>
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -729,32 +708,25 @@
       <c r="F7">
         <v>1200</v>
       </c>
-      <c r="G7">
-        <v>2478</v>
-      </c>
-      <c r="H7">
-        <v>2459</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="G7" s="4">
+        <v>2469</v>
+      </c>
+      <c r="H7" s="4">
         <v>2468.5</v>
       </c>
+      <c r="I7" s="4">
+        <v>2406</v>
+      </c>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
+        <f>H7/D7</f>
         <v>0.88160714285714281</v>
       </c>
-      <c r="K7">
-        <v>2469</v>
-      </c>
-      <c r="L7">
-        <v>2406</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="2"/>
+      <c r="K7" s="3">
+        <f>I7/D7</f>
         <v>0.85928571428571432</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -773,32 +745,25 @@
       <c r="F8">
         <v>1000</v>
       </c>
-      <c r="G8">
-        <v>1883</v>
-      </c>
-      <c r="H8">
-        <v>1891</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="G8" s="4">
+        <v>1916</v>
+      </c>
+      <c r="H8" s="4">
         <v>1887</v>
       </c>
+      <c r="I8" s="4">
+        <v>1781</v>
+      </c>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
+        <f>H8/D8</f>
         <v>0.94350000000000001</v>
       </c>
-      <c r="K8">
-        <v>1916</v>
-      </c>
-      <c r="L8">
-        <v>1781</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
+      <c r="K8" s="3">
+        <f>I8/D8</f>
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -817,32 +782,25 @@
       <c r="F9">
         <v>500</v>
       </c>
-      <c r="G9">
-        <v>2410</v>
-      </c>
-      <c r="H9">
-        <v>2418</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="G9" s="4">
+        <v>2496</v>
+      </c>
+      <c r="H9" s="4">
         <v>2414</v>
       </c>
+      <c r="I9" s="4">
+        <v>2374</v>
+      </c>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
+        <f>H9/D9</f>
         <v>0.98530612244897964</v>
       </c>
-      <c r="K9">
-        <v>2496</v>
-      </c>
-      <c r="L9">
-        <v>2374</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="2"/>
+      <c r="K9" s="3">
+        <f>I9/D9</f>
         <v>0.96897959183673465</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -861,32 +819,25 @@
       <c r="F10">
         <v>400</v>
       </c>
-      <c r="G10">
-        <v>2435</v>
-      </c>
-      <c r="H10">
-        <v>2449</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="G10" s="4">
+        <v>2508</v>
+      </c>
+      <c r="H10" s="4">
         <v>2442</v>
       </c>
+      <c r="I10" s="4">
+        <v>2457</v>
+      </c>
       <c r="J10" s="2">
-        <f t="shared" si="1"/>
+        <f>H10/D10</f>
         <v>0.99673469387755098</v>
       </c>
-      <c r="K10">
-        <v>2508</v>
-      </c>
-      <c r="L10">
-        <v>2457</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
+      <c r="K10" s="3">
+        <f>I10/D10</f>
         <v>1.0028571428571429</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -905,24 +856,125 @@
       <c r="F11">
         <v>2100</v>
       </c>
-      <c r="G11">
-        <v>2344</v>
-      </c>
-      <c r="H11">
-        <v>2408</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="4">
+        <v>2376</v>
+      </c>
+      <c r="J11" s="2">
+        <f>H11/D11</f>
+        <v>0.91384615384615386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17/C17</f>
+        <v>2.1237499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <v>28.99</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18/C18</f>
+        <v>1.8118749999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:E23" si="0">D19/C19</f>
+        <v>1.87375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>2376</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.91384615384615386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
+        <v>2.3737499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7.99</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9975000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7474999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
